--- a/data.xlsx
+++ b/data.xlsx
@@ -27,20 +27,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>url</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>http://imgc.nxtv.jp/img/info/tit/00030/SID0030483.png</t>
-  </si>
-  <si>
-    <t>kimi.png</t>
+    <t>filename</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>filename</t>
+    <t>https://placehold.jp/150x150.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>square.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://cdn.pixabay.com/photo/2017/09/27/12/55/tiger-2791980__340.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tiger.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://cdn.pixabay.com/photo/2013/10/02/23/00/lama-190040__340.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lama.jpg</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -466,7 +483,7 @@
   <dimension ref="A1:D301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.35"/>
@@ -478,7 +495,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -486,21 +503,29 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
       </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
